--- a/Kanban.xlsx
+++ b/Kanban.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>Cycle Time</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Oct</t>
+  </si>
+  <si>
+    <t>Lead time</t>
   </si>
 </sst>
 </file>
@@ -580,6 +580,9 @@
                 <c:pt idx="0">
                   <c:v>0.39</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -593,11 +596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141581696"/>
-        <c:axId val="141587584"/>
+        <c:axId val="141519872"/>
+        <c:axId val="141521664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141581696"/>
+        <c:axId val="141519872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141587584"/>
+        <c:crossAx val="141521664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -615,7 +618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141587584"/>
+        <c:axId val="141521664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141581696"/>
+        <c:crossAx val="141519872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -740,6 +743,9 @@
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -753,11 +759,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142021760"/>
-        <c:axId val="142023296"/>
+        <c:axId val="142025472"/>
+        <c:axId val="142027008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142021760"/>
+        <c:axId val="142025472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142023296"/>
+        <c:crossAx val="142027008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -775,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142023296"/>
+        <c:axId val="142027008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142021760"/>
+        <c:crossAx val="142025472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -844,7 +850,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Cycle Time</c:v>
+            <c:v>Lead Time</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -899,6 +905,9 @@
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>17.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,11 +922,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142047872"/>
-        <c:axId val="142049664"/>
+        <c:axId val="142047488"/>
+        <c:axId val="142049280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142047872"/>
+        <c:axId val="142047488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142049664"/>
+        <c:crossAx val="142049280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -935,7 +944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142049664"/>
+        <c:axId val="142049280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142047872"/>
+        <c:crossAx val="142047488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1369,7 +1378,7 @@
   <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,53 +1394,55 @@
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="N2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="10">
         <v>9</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10">
+        <v>15</v>
+      </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1445,12 +1456,14 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="12">
         <v>2.25</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>3.75</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1464,12 +1477,14 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="14">
         <v>0.39</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14">
+        <v>0.71</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1483,12 +1498,14 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="16">
         <v>18</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16">
+        <v>27</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -1502,12 +1519,14 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="18">
         <v>7</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="18">
+        <v>10.43</v>
+      </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -1521,12 +1540,14 @@
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C8" s="20">
         <v>17.89</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20">
+        <v>14.6</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
